--- a/Doc/BOM cost estimate (mass production).xlsx
+++ b/Doc/BOM cost estimate (mass production).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Microcontroller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Display</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,22 +42,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PCB mfg and other components</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shell</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Printed cover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Total (RMB)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total (USD)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Cost (10 pcs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit cost (1000 pcs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacitive sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimated market price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latest HW version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misc. components</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,10 +106,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ [$¥-804]* #,##0_ ;_ [$¥-804]* \-#,##0_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +130,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,28 +171,141 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+  <cellXfs count="15">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="176" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="177" formatCode="_ [$¥-804]* #,##0_ ;_ [$¥-804]* \-#,##0_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="177" formatCode="_ [$¥-804]* #,##0_ ;_ [$¥-804]* \-#,##0_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_ [$¥-804]* #,##0_ ;_ [$¥-804]* \-#,##0_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_ [$¥-804]* #,##0_ ;_ [$¥-804]* \-#,##0_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_ [$¥-804]* #,##0_ ;_ [$¥-804]* \-#,##0_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_ [$¥-804]* #,##0_ ;_ [$¥-804]* \-#,##0_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,11 +321,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:B10" totalsRowCount="1">
-  <autoFilter ref="A2:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Cost" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D13" totalsRowCount="1" headerRowDxfId="8">
+  <autoFilter ref="A3:D12"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Item" totalsRowLabel="  Total (RMB)  " dataDxfId="6" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Qty" dataDxfId="4" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="Unit Cost (10 pcs)" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+      <totalsRowFormula>SUMPRODUCT(Table1[Unit Cost (10 pcs)],Table1[Qty])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Unit cost (1000 pcs)" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="0">
+      <totalsRowFormula>SUMPRODUCT(Table1[Unit cost (1000 pcs)],Table1[Qty])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -416,95 +600,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="13">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <f>40/5</f>
+        <v>8</v>
+      </c>
+      <c r="D8" s="5">
+        <f>Table1[[#This Row],[Unit Cost (10 pcs)]]/2</f>
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5">
+        <f>SUMPRODUCT(Table1[Unit Cost (10 pcs)],Table1[Qty])</f>
+        <v>228</v>
+      </c>
+      <c r="D13" s="5">
+        <f>SUMPRODUCT(Table1[Unit cost (1000 pcs)],Table1[Qty])</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <f>SUBTOTAL(109,Table1[Cost])</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <f>Table1[[#Totals],[Cost]]/6</f>
-        <v>23.666666666666668</v>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6">
+        <f>Table1[[#Totals],[Unit Cost (10 pcs)]]/6</f>
+        <v>38</v>
+      </c>
+      <c r="D14" s="7">
+        <f>Table1[[#Totals],[Unit cost (1000 pcs)]]/6</f>
+        <v>18.666666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="11">
+        <f>Table1[[#Totals],[Unit cost (1000 pcs)]]*5</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="12">
+        <f>D14*5</f>
+        <v>93.333333333333343</v>
       </c>
     </row>
   </sheetData>
